--- a/doc/eda/sample_eda_mfh.xlsx
+++ b/doc/eda/sample_eda_mfh.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3203,7 +3203,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$D$16</c:f>
+              <c:f>Sheet4!$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3224,39 +3224,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$D$17:$D$26</c:f>
+              <c:f>Sheet4!$C$17:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>7.3170731707317069E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>7.3170731707317069E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>0.14634146341463414</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>0.34146341463414637</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>0.12195121951219512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>4.878048780487805E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>0.12195121951219512</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2.4390243902439025E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>2.4390243902439025E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>2.4390243902439025E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3365,8 +3365,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="405474256"/>
-        <c:axId val="416135856"/>
+        <c:axId val="466574480"/>
+        <c:axId val="466574896"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="466574480"/>
@@ -3474,64 +3474,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="416135856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="405474256"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="405474256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="416135856"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7233,7 +7175,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:F15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisCol" dataField="1" showAll="0">
@@ -11045,8 +10987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/eda/sample_eda_mfh.xlsx
+++ b/doc/eda/sample_eda_mfh.xlsx
@@ -1507,7 +1507,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3194,76 +3193,131 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$C$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Grand Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet4!$C$17:$C$26</c:f>
+              <c:f>Sheet4!$B$17:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.3170731707317069E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3170731707317069E-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14634146341463414</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34146341463414637</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12195121951219512</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.878048780487805E-2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12195121951219512</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4390243902439025E-2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4390243902439025E-2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4390243902439025E-2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$G$17:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.4381913687831105E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8030147353384144E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7646229641442733E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10151716885755684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8919858174962405E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0341529985038346E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7330597602418602E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2040495851928862E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6650802910031257E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2877815514842278E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-291E-4ACF-92F2-3EF3A4A72272}"/>
+              <c16:uniqueId val="{00000000-8AB8-4C1A-B16C-8707B407068B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3275,106 +3329,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="466574480"/>
-        <c:axId val="466574896"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$E$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Normal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+        <c:axId val="362779376"/>
+        <c:axId val="368141328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="362779376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$E$17:$E$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>7.4381913687831105E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.8030147353384144E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.7646229641442733E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.10151716885755684</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.8919858174962405E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.0341529985038346E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.7330597602418602E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.2040495851928862E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6650802910031257E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.2877815514842278E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-291E-4ACF-92F2-3EF3A4A72272}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="466574480"/>
-        <c:axId val="466574896"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="466574480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3383,8 +3362,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3411,15 +3390,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466574896"/>
+        <c:crossAx val="368141328"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="466574896"/>
+        <c:axId val="368141328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3445,8 +3421,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3470,9 +3452,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466574480"/>
+        <c:crossAx val="362779376"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3482,38 +3464,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5777,7 +5727,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5804,8 +5754,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5906,7 +5856,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5938,10 +5888,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5981,22 +5931,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6101,8 +6052,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6234,19 +6185,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6260,6 +6212,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6410,20 +6373,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1120</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>77320</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10985,10 +10948,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E29"/>
+  <dimension ref="B3:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11086,7 +11049,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1</v>
       </c>
@@ -11097,11 +11060,19 @@
         <v>3</v>
       </c>
       <c r="E17">
+        <f>B17*D17</f>
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f>B17/E$27</f>
+        <v>5.4945054945054949E-3</v>
+      </c>
+      <c r="G17">
         <f>_xlfn.NORM.DIST(B17,D$28,D$29, FALSE)</f>
         <v>7.4381913687831105E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2</v>
       </c>
@@ -11112,11 +11083,19 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:E26" si="0">_xlfn.NORM.DIST(B18,D$28,D$29, FALSE)</f>
+        <f t="shared" ref="E18:E26" si="0">B18*D18</f>
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:F26" si="1">B18/E$27</f>
+        <v>1.098901098901099E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G26" si="2">_xlfn.NORM.DIST(B18,D$28,D$29, FALSE)</f>
         <v>8.8030147353384144E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>3</v>
       </c>
@@ -11128,10 +11107,18 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1.6483516483516484E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
         <v>9.7646229641442733E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>4</v>
       </c>
@@ -11143,10 +11130,18 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>2.197802197802198E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
         <v>0.10151716885755684</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>5</v>
       </c>
@@ -11158,10 +11153,18 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>2.7472527472527472E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
         <v>9.8919858174962405E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>6</v>
       </c>
@@ -11173,10 +11176,18 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>3.2967032967032968E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
         <v>9.0341529985038346E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>7</v>
       </c>
@@ -11188,10 +11199,18 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
         <v>7.7330597602418602E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>8</v>
       </c>
@@ -11203,10 +11222,18 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>4.3956043956043959E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
         <v>6.2040495851928862E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>9</v>
       </c>
@@ -11218,10 +11245,18 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>4.9450549450549448E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
         <v>4.6650802910031257E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>10</v>
       </c>
@@ -11233,10 +11268,18 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>5.4945054945054944E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
         <v>3.2877815514842278E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>239</v>
       </c>
@@ -11246,14 +11289,18 @@
       <c r="D27">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f>SUM(E17:E26)</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D28">
         <f>AVERAGE(D17:D26)</f>
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D29">
         <f>STDEV(D17:D26)</f>
         <v>3.9285281382896233</v>
